--- a/YM ELEC.xlsx
+++ b/YM ELEC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccarandang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno Tabet\Documents\ENOVA\MVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E097FCD-DC1E-4EAC-ACEE-E27B4CE085B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4635" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16770" windowHeight="5535" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="_location" sheetId="2" state="hidden" r:id="rId1"/>
@@ -38,7 +37,7 @@
     <definedName name="Transportation">_type!$H$2:$H$8</definedName>
     <definedName name="Water">_units!$B$2:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,12 +58,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nicolas Ramirez</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="C20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>Locator</t>
   </si>
@@ -285,9 +284,6 @@
   </si>
   <si>
     <t>Project details</t>
-  </si>
-  <si>
-    <t>Footfall</t>
   </si>
   <si>
     <t>M&amp;V option</t>
@@ -437,7 +433,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -731,33 +727,11 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill>
@@ -820,6 +794,25 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="dd/mmm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -834,50 +827,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="_coords" displayName="_coords" ref="A1:M5" totalsRowShown="0">
-  <autoFilter ref="A1:M5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="_coords" displayName="_coords" ref="A1:M5" totalsRowShown="0">
+  <autoFilter ref="A1:M5"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Locator"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Dubai (UAE)"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abu Dhabi (UAE)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Al Ain (UAE)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sharjah (UAE)"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fujairah (UAE)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Ras Al Khaimah (UAE)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Muscat (Oman)"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Beirut (Lebanon)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Bahrain (Bahrain)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Cairo (Egypt)"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Alexandria (Egypt)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Istanbul (Turkey)"/>
+    <tableColumn id="1" name="Locator"/>
+    <tableColumn id="2" name="Dubai (UAE)"/>
+    <tableColumn id="3" name="Abu Dhabi (UAE)"/>
+    <tableColumn id="4" name="Al Ain (UAE)"/>
+    <tableColumn id="5" name="Sharjah (UAE)"/>
+    <tableColumn id="6" name="Fujairah (UAE)"/>
+    <tableColumn id="7" name="Ras Al Khaimah (UAE)"/>
+    <tableColumn id="8" name="Muscat (Oman)"/>
+    <tableColumn id="9" name="Beirut (Lebanon)"/>
+    <tableColumn id="10" name="Bahrain (Bahrain)"/>
+    <tableColumn id="11" name="Cairo (Egypt)"/>
+    <tableColumn id="12" name="Alexandria (Egypt)"/>
+    <tableColumn id="13" name="Istanbul (Turkey)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Baseline" displayName="Baseline" ref="A1:C55" totalsRowShown="0">
-  <autoFilter ref="A1:C55" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Baseline" displayName="Baseline" ref="A1:C13" totalsRowShown="0">
+  <autoFilter ref="A1:C13"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="From (incl)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="To (excl)" dataDxfId="4">
+    <tableColumn id="1" name="From (incl)" dataDxfId="12"/>
+    <tableColumn id="3" name="To (excl)" dataDxfId="11">
       <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="kWh" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="4" name="kWh" dataDxfId="10" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Variables" displayName="Variables" ref="A1:C366" totalsRowShown="0">
-  <autoFilter ref="A1:C366" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="From (incl)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="To (excl)" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Variables" displayName="Variables" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="From (incl)" dataDxfId="9"/>
+    <tableColumn id="3" name="To (excl)" dataDxfId="8">
       <calculatedColumnFormula>IF(ISBLANK(A3),"",A3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Footfall" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1145,7 +1137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1168,40 +1160,40 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>89</v>
-      </c>
-      <c r="M1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1311,40 +1303,40 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
         <v>92</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>94</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>95</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>96</v>
       </c>
-      <c r="K5" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M5" t="s">
         <v>5</v>
@@ -1359,7 +1351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1562,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1577,55 +1569,55 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1635,10 +1627,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -1665,26 +1657,26 @@
         <v>4</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4"/>
       <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="29"/>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="23"/>
@@ -1692,13 +1684,13 @@
         <v>7</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
       <c r="C4" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>12</v>
@@ -1716,7 +1708,7 @@
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -1731,13 +1723,13 @@
         <v>54.651111110000002</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="29"/>
       <c r="C6" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="24"/>
@@ -1770,7 +1762,7 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -1797,7 +1789,7 @@
         <v>59</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1807,7 +1799,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1817,17 +1809,17 @@
         <v>61</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="19">
         <v>44197</v>
@@ -1837,7 +1829,7 @@
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="26"/>
       <c r="C17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D17" s="20">
         <v>44531</v>
@@ -1847,29 +1839,29 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="26"/>
       <c r="C18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="26"/>
       <c r="C19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="26"/>
       <c r="C20" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20" s="3" t="str">
         <f>D3</f>
@@ -1880,7 +1872,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="26"/>
       <c r="C21" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="21">
         <v>1802534</v>
@@ -1893,7 +1885,7 @@
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="26"/>
       <c r="C22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D22" s="3" t="str">
         <f>INDEX(_location!A5:M5,MATCH(Project!I3,_coords[#Headers],0))</f>
@@ -1904,7 +1896,7 @@
     <row r="23" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27"/>
       <c r="C23" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="6">
         <v>0.30299999999999999</v>
@@ -1921,80 +1913,80 @@
     <mergeCell ref="B2:B14"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I3">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="7" priority="13">
       <formula>IF(#REF!="City",FALSE,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:I6 E23 D22">
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="6" priority="10">
       <formula>IF(#REF!="Coordinates",FALSE,TRUE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8 D2:D14">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>ISBLANK(D2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D20">
-    <cfRule type="expression" dxfId="10" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>ISBLANK(D18)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>ISBLANK(E19)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>ISBLANK(I2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D17">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISBLANK(D16)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>ISBLANK(D21)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5">
       <formula1>INDIRECT(SUBSTITUTE(D4," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12">
       <formula1>"N/A,Air-cooled chiller,Water-cooled chiller,DX,District cooling"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{00000000-0002-0000-0300-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
       <formula1>"N/A,Electricity (&gt;1 MW),Electricity (&gt;10 MW)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14" xr:uid="{00000000-0002-0000-0300-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D14">
       <formula1>"N/A,Yes"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9" xr:uid="{00000000-0002-0000-0300-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E9">
       <formula1>"m2,ft2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18" xr:uid="{00000000-0002-0000-0300-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18">
       <formula1>"Option B,Option C,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="User input" error="Custom utility chosen. Are you sure? If not, chose from the dropdown list." sqref="D19" xr:uid="{00000000-0002-0000-0300-000006000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="User input" error="Custom utility chosen. Are you sure? If not, chose from the dropdown list." sqref="D19">
       <formula1>"Electricity,Water,Chilled Water,Gas"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Custom utility units" sqref="E19" xr:uid="{00000000-0002-0000-0300-000007000000}">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Custom utility units" sqref="E19">
       <formula1>INDIRECT(SUBSTITUTE(D19," ","_"))</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{00000000-0002-0000-0300-000008000000}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6">
       <formula1>1900</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11" xr:uid="{00000000-0002-0000-0300-000009000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21" xr:uid="{00000000-0002-0000-0300-00000A000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D21">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21" xr:uid="{00000000-0002-0000-0300-00000B000000}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E21">
       <formula1>E19</formula1>
     </dataValidation>
   </dataValidations>
@@ -2004,25 +1996,25 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>_location!$B$1:$U$1</xm:f>
           </x14:formula1>
           <xm:sqref>I3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>_type!$A$1:$J$1</xm:f>
           </x14:formula1>
           <xm:sqref>D4</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000E000000}">
+        <x14:dataValidation type="list" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Baseline!$A$2:$A$55</xm:f>
           </x14:formula1>
           <xm:sqref>D16</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-00000F000000}">
+        <x14:dataValidation type="list" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Baseline!$B$2:$B$55</xm:f>
           </x14:formula1>
@@ -2035,11 +2027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2048,7 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,31 +2417,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E8" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44197</v>
       </c>
@@ -2458,7 +2446,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44228</v>
       </c>
@@ -2467,7 +2455,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44256</v>
       </c>
@@ -2476,7 +2464,7 @@
         <v>44287</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44287</v>
       </c>
@@ -2485,7 +2473,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44317</v>
       </c>
@@ -2494,7 +2482,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44348</v>
       </c>
@@ -2503,7 +2491,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44378</v>
       </c>
@@ -2512,7 +2500,7 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44409</v>
       </c>
@@ -2521,7 +2509,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44440</v>
       </c>
@@ -2530,7 +2518,7 @@
         <v>44470</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44470</v>
       </c>
@@ -2539,7 +2527,7 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44501</v>
       </c>
@@ -2548,7 +2536,7 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44531</v>
       </c>
@@ -2556,15 +2544,15 @@
         <v>44562</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
